--- a/excel/eventIds.xlsx
+++ b/excel/eventIds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,237 +440,177 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6748309</v>
+        <v>6806949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6746471</v>
+        <v>6806946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6746467</v>
+        <v>6806937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6746475</v>
+        <v>6806944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6746490</v>
+        <v>6806951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6746496</v>
+        <v>6806956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6746493</v>
+        <v>6806959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6746479</v>
+        <v>6806963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6746494</v>
+        <v>6806961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6746486</v>
+        <v>6806965</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6746502</v>
+        <v>6806954</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6746492</v>
+        <v>6809021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6746441</v>
+        <v>6809022</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6746443</v>
+        <v>6809024</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6746445</v>
+        <v>6809023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6746448</v>
+        <v>6809025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6746455</v>
+        <v>6809026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6746450</v>
+        <v>6809028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6746483</v>
+        <v>6809027</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6746460</v>
+        <v>6809030</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6746468</v>
+        <v>6809029</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6746463</v>
+        <v>6809032</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6746472</v>
+        <v>6809033</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6746478</v>
+        <v>6808972</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6746451</v>
+        <v>6808973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6746458</v>
+        <v>6808974</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6746466</v>
+        <v>6808976</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6746454</v>
+        <v>6808975</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6746462</v>
+        <v>6808977</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6746473</v>
+        <v>6808978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6746476</v>
+        <v>6808983</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6746480</v>
+        <v>6808979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6746484</v>
+        <v>6808980</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6746491</v>
+        <v>6808981</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6746487</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>6746435</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>6746437</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>6746439</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>6746440</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>6746442</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>6746444</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>6746449</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>6746456</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>6746447</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>6746452</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>6746464</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>6746459</v>
+        <v>6808982</v>
       </c>
     </row>
   </sheetData>
